--- a/Excel Files/Scenario 17/Scenario 17_ TC005/expectedContractParts.xlsx
+++ b/Excel Files/Scenario 17/Scenario 17_ TC005/expectedContractParts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nasin\git\tb-syazwan-ttap-brivge\Excel Files\Scenario 17\Scenario 17_ TC005\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A34C63-EAD9-437E-9ABE-5C0A0ACA9C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A3D2FD-142A-4630-A627-86A05332B0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12021,8 +12021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG12" sqref="AG12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF16" sqref="AF16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
@@ -12536,8 +12536,9 @@
       <c r="AF8" s="33">
         <v>1</v>
       </c>
-      <c r="AG8" s="30">
-        <v>45222</v>
+      <c r="AG8" s="30" t="str">
+        <f ca="1">TEXT(TODAY(), "dd-mmm-yyyy")</f>
+        <v>29-Oct-2023</v>
       </c>
       <c r="AH8" s="23">
         <v>4</v>
@@ -12628,8 +12629,9 @@
       <c r="AF9" s="33">
         <v>1</v>
       </c>
-      <c r="AG9" s="30">
-        <v>45222</v>
+      <c r="AG9" s="30" t="str">
+        <f t="shared" ref="AG9:AG12" ca="1" si="0">TEXT(TODAY(), "dd-mmm-yyyy")</f>
+        <v>29-Oct-2023</v>
       </c>
       <c r="AH9" s="23">
         <v>4</v>
@@ -12720,8 +12722,9 @@
       <c r="AF10" s="33">
         <v>2</v>
       </c>
-      <c r="AG10" s="30">
-        <v>45222</v>
+      <c r="AG10" s="30" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>29-Oct-2023</v>
       </c>
       <c r="AH10" s="23">
         <v>6</v>
@@ -12812,8 +12815,9 @@
       <c r="AF11" s="33">
         <v>2</v>
       </c>
-      <c r="AG11" s="30">
-        <v>45222</v>
+      <c r="AG11" s="30" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>29-Oct-2023</v>
       </c>
       <c r="AH11" s="23">
         <v>6</v>
@@ -12904,8 +12908,9 @@
       <c r="AF12" s="33">
         <v>1</v>
       </c>
-      <c r="AG12" s="30">
-        <v>45222</v>
+      <c r="AG12" s="30" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>29-Oct-2023</v>
       </c>
       <c r="AH12" s="23">
         <v>2</v>
